--- a/bioinfo_tech_summary.xlsx
+++ b/bioinfo_tech_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAC4EED-E18A-724C-8739-7D229325B8C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8E22F-D064-5F43-AC1B-D6EC7B941A50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{214EB11E-8132-7742-864A-B3B65446526F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Method</t>
   </si>
@@ -155,13 +155,55 @@
   </si>
   <si>
     <t>10X visium</t>
+  </si>
+  <si>
+    <t>Sis-Seq</t>
+  </si>
+  <si>
+    <t>Naik</t>
+  </si>
+  <si>
+    <t>CFSE and scRNAseq</t>
+  </si>
+  <si>
+    <t>Mice and zebrafish</t>
+  </si>
+  <si>
+    <t>Mice and humans</t>
+  </si>
+  <si>
+    <t>Mice</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>Sample Prep</t>
+  </si>
+  <si>
+    <t>Barcoded cells</t>
+  </si>
+  <si>
+    <t>CFSE labelled cells</t>
+  </si>
+  <si>
+    <t>Fresh cells;frozen cells?</t>
+  </si>
+  <si>
+    <t>Fresh cells; frozen cells?</t>
+  </si>
+  <si>
+    <t>Fresh cells</t>
+  </si>
+  <si>
+    <t>mice but human is possible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +221,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
@@ -212,11 +261,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,20 +593,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE703EFA-204A-BF48-BF0C-5128406B64C5}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="4" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,16 +620,23 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -591,8 +649,14 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -605,8 +669,14 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -619,125 +689,183 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>39</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>41</v>
       </c>
     </row>
